--- a/frontend/src/i18n/Translations Master.xlsx
+++ b/frontend/src/i18n/Translations Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logrhythm-my.sharepoint.com/personal/tony_masse_logrhythm_com/Documents/Tony.Masse/Projets/20210331.EZ-Cloud on Legacy SIEM/EZ-Cloud/frontend/src/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{4939A0CD-BDFC-4EBB-81BD-8799C6D6F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC731D0-B04C-47C9-A7EB-3BE9F13A032C}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="8_{4939A0CD-BDFC-4EBB-81BD-8799C6D6F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FCE4BA-D37E-4ED4-A575-92A100E7B108}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="16080" windowWidth="29040" windowHeight="17640" xr2:uid="{D456FA7A-7DCE-4D21-9808-82CD4ABFE24B}"/>
+    <workbookView xWindow="75" yWindow="15" windowWidth="57465" windowHeight="15585" xr2:uid="{D456FA7A-7DCE-4D21-9808-82CD4ABFE24B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,9 +1000,6 @@
     <t>Do you REALLY want to delete the Collection information for this Pipeline?</t>
   </si>
   <si>
-    <t>Error trying to parse the content of the imported Collection Configuration file. Error:</t>
-  </si>
-  <si>
     <t>Only one .ezCollection file is accepted. You tried to import multiple files.</t>
   </si>
   <si>
@@ -1870,9 +1867,6 @@
     <t>Format de sortie inconnu.</t>
   </si>
   <si>
-    <t>Erreur lors de la tentative d'analyse du contenu du fichier de configuration de collection importé. Erreur:</t>
-  </si>
-  <si>
     <t>Un seul fichier .ezCollection est accepté. Vous avez essayé d'importer plusieurs fichiers.</t>
   </si>
   <si>
@@ -2077,9 +2071,6 @@
     <t>قائمة الانتظار الواردة: {queueInOverQueueInMaxSize}٪ ({queueIn} / {queueInMaxSize}).</t>
   </si>
   <si>
-    <t>الرسائل التي تمت معالجتها: {ProcessingLogsCountOverProcessedLogsMaxSize}٪ ({processorLogsCount} / {processorLogsMaxSize}).</t>
-  </si>
-  <si>
     <t>إجمالي الرسائل المرسلة بواسطة الخلفية: {incomingLogCount}</t>
   </si>
   <si>
@@ -3043,9 +3034,6 @@
     <t>هل تريد حقًا حذف معلومات المجموعة لخط الأنابيب هذا؟</t>
   </si>
   <si>
-    <t>خطأ في محاولة تحليل محتوى ملف تكوين المجموعة الذي تم استيراده. خطأ:</t>
-  </si>
-  <si>
     <t>يتم قبول ملف .ezCollection واحد فقط. لقد حاولت استيراد عدة ملفات.</t>
   </si>
   <si>
@@ -3346,12 +3334,6 @@
     <t>EZ Market Place : Notifications</t>
   </si>
   <si>
-    <t>التردد النسبي {sawInLogCountOverMaxSeenInLog}٪ ({sawInLogCount} / {maxSeenInLog}).</t>
-  </si>
-  <si>
-    <t>غير متاح | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).</t>
-  </si>
-  <si>
     <t>مرشح JQ</t>
   </si>
   <si>
@@ -3400,9 +3382,6 @@
     <t>فشلت الخطوة الأخيرة مع عدم وجود رسالة خطأ.</t>
   </si>
   <si>
-    <t>| تم تخطي خطوة واحدة. | تم تخطي {عدد} من الخطوات.</t>
-  </si>
-  <si>
     <t>هذا جيد. يتم عادةً تخطي الخطوات إذا لم تكن ضرورية لعملية نشر معينة.</t>
   </si>
   <si>
@@ -3913,9 +3892,6 @@
     <t>الطريقة: {collectionMethodLabel}</t>
   </si>
   <si>
-    <t>الحقول المكتشفة: {الكشف عن الحقول}</t>
-  </si>
-  <si>
     <t>الحقول المعينة: {mappedFields} ({mappedFieldsPercent}٪)</t>
   </si>
   <si>
@@ -3943,9 +3919,6 @@
     <t>تجاوز أجزاء من خط أنابيب موجود بهذا القالب</t>
   </si>
   <si>
-    <t>EZ Market Place: Pipeline Templates: {ezMarketPipelineTemplateName}</t>
-  </si>
-  <si>
     <t>الخصائص</t>
   </si>
   <si>
@@ -3964,9 +3937,6 @@
     <t>خطوط الأنابيب الحالية</t>
   </si>
   <si>
-    <t>تمت مشاهدته في {sawInOverMaxSeenInLog}٪ من السجلات في العينة ({sawIn} / {maxSeenInLog})</t>
-  </si>
-  <si>
     <t>خيارات الاستيراد</t>
   </si>
   <si>
@@ -4733,6 +4703,36 @@
   </si>
   <si>
     <t>Connexion en direct (Socket)</t>
+  </si>
+  <si>
+    <t>Error trying to parse the content of the imported Collection Configuration file. Error: {errorMessage}</t>
+  </si>
+  <si>
+    <t>Erreur lors de la tentative d'analyse du contenu du fichier de configuration de collection importé. Erreur: {errorMessage}</t>
+  </si>
+  <si>
+    <t>خطأ في محاولة تحليل محتوى ملف تكوين المجموعة الذي تم استيراده. الخطأ: {errorMessage}</t>
+  </si>
+  <si>
+    <t>الرسائل التي تمت معالجتها: {processedLogsCountOverProcessedLogsMaxSize}٪ ({processedLogsCount} / {processedLogsMaxSize}).</t>
+  </si>
+  <si>
+    <t>التردد النسبي {seenInLogCountOverMaxSeenInLog}٪ ({seenInLogCount} / {maxSeenInLog}).</t>
+  </si>
+  <si>
+    <t>غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).</t>
+  </si>
+  <si>
+    <t>| تم تخطي خطوة واحدة. | تم تخطي {count} من الخطوات.</t>
+  </si>
+  <si>
+    <t>الحقول المكتشفة: {detectedFields}</t>
+  </si>
+  <si>
+    <t>EZ Marketplace : قوالب خطوط الأنابيب : {ezMarket Pipeline Template Name}</t>
+  </si>
+  <si>
+    <t>تمت مشاهدته في {seenInOverMaxSeenInLog}٪ من السجلات في العينة ({seenIn} / {maxSeenInLog})</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4749,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4779,8 +4778,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5127,31 +5126,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.7109375" customWidth="1"/>
+    <col min="1" max="1" width="111.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="118" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="114.5703125" customWidth="1"/>
+    <col min="4" max="4" width="112.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
         <v>425</v>
       </c>
-      <c r="B1" t="s">
-        <v>426</v>
-      </c>
       <c r="C1" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="D1" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="E1" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F1" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5162,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="E2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5184,10 +5183,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5206,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5228,10 +5227,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="D5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E5" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5250,10 +5249,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E6" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5272,10 +5271,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5294,10 +5293,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="D8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E8" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5316,10 +5315,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E9" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5338,10 +5337,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="D10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E10" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5360,10 +5359,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="D11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E11" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5382,10 +5381,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E12" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5404,10 +5403,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5426,10 +5425,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="D14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E14" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5448,10 +5447,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D15" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E15" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5470,10 +5469,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E16" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5492,10 +5491,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="D17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E17" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5514,10 +5513,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E18" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5536,10 +5535,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5558,10 +5557,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E20" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5580,10 +5579,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="D21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E21" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5602,10 +5601,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E22" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5624,10 +5623,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E23" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5646,10 +5645,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D24" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E24" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5668,10 +5667,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="D25" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E25" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5690,10 +5689,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="D26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E26" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5712,10 +5711,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="D27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E27" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5728,16 +5727,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="B28" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="C28" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D28" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5756,10 +5755,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E29" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5778,10 +5777,10 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E30" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5794,16 +5793,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="B31" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="C31" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D31" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5822,10 +5821,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E32" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5844,10 +5843,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E33" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5866,10 +5865,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E34" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5888,10 +5887,10 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E35" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5910,10 +5909,10 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E36" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5932,10 +5931,10 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D37" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E37" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5954,10 +5953,10 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E38" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5976,10 +5975,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D39" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E39" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -5998,10 +5997,10 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E40" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6020,10 +6019,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E41" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6042,10 +6041,10 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="E42" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6064,10 +6063,10 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D43" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E43" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6086,10 +6085,10 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E44" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6108,10 +6107,10 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D45" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E45" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6130,10 +6129,10 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E46" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6152,10 +6151,10 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D47" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E47" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6174,10 +6173,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D48" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E48" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6196,10 +6195,10 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D49" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E49" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6218,10 +6217,10 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="D50" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E50" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6240,10 +6239,10 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="D51" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E51" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6262,10 +6261,10 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="D52" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E52" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6284,10 +6283,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="D53" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E53" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6306,10 +6305,10 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D54" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E54" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6328,10 +6327,10 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E55" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6350,10 +6349,10 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D56" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E56" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6372,10 +6371,10 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D57" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E57" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6394,10 +6393,10 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D58" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E58" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6416,10 +6415,10 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D59" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E59" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6438,10 +6437,10 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="D60" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E60" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6460,10 +6459,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D61" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E61" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6482,10 +6481,10 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D62" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E62" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6504,10 +6503,10 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D63" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E63" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6526,10 +6525,10 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D64" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E64" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6548,10 +6547,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D65" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E65" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6570,10 +6569,10 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D66" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E66" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6592,10 +6591,10 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D67" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E67" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6614,10 +6613,10 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E68" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6636,10 +6635,10 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E69" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6658,10 +6657,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D70" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E70" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6680,10 +6679,10 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D71" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E71" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6702,10 +6701,10 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D72" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E72" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6724,10 +6723,10 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D73" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E73" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6746,10 +6745,10 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D74" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E74" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6768,10 +6767,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="D75" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E75" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6784,16 +6783,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="B76" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="C76" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="D76" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E76" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6806,16 +6805,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="B77" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="C77" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="D77" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6828,16 +6827,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="B78" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="C78" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="D78" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="E78" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6856,10 +6855,10 @@
         <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D79" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E79" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6878,10 +6877,10 @@
         <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D80" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E80" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6900,10 +6899,10 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="D81" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E81" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6922,10 +6921,10 @@
         <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="D82" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E82" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6944,10 +6943,10 @@
         <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="D83" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E83" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6966,10 +6965,10 @@
         <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="D84" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E84" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -6988,10 +6987,10 @@
         <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D85" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="E85" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7010,10 +7009,10 @@
         <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D86" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E86" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7032,10 +7031,10 @@
         <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D87" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E87" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7054,10 +7053,10 @@
         <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D88" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E88" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7076,10 +7075,10 @@
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="D89" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E89" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7098,10 +7097,10 @@
         <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="D90" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="E90" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7120,10 +7119,10 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D91" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E91" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7142,10 +7141,10 @@
         <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="D92" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E92" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7164,10 +7163,10 @@
         <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D93" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E93" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7186,10 +7185,10 @@
         <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="D94" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E94" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7208,10 +7207,10 @@
         <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="D95" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E95" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7230,10 +7229,10 @@
         <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D96" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E96" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7252,10 +7251,10 @@
         <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="D97" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E97" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7277,7 +7276,7 @@
         <v>91</v>
       </c>
       <c r="D98" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E98" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7296,10 +7295,10 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D99" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E99" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7318,10 +7317,10 @@
         <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D100" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E100" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7340,10 +7339,10 @@
         <v>94</v>
       </c>
       <c r="C101" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D101" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="E101" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7362,10 +7361,10 @@
         <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D102" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E102" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7384,10 +7383,10 @@
         <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="D103" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E103" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7406,10 +7405,10 @@
         <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="D104" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E104" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7428,10 +7427,10 @@
         <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D105" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E105" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7450,10 +7449,10 @@
         <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D106" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E106" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7472,10 +7471,10 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D107" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E107" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7494,10 +7493,10 @@
         <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D108" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E108" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7516,10 +7515,10 @@
         <v>102</v>
       </c>
       <c r="C109" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D109" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E109" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7538,10 +7537,10 @@
         <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D110" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E110" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7560,10 +7559,10 @@
         <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D111" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E111" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7582,10 +7581,10 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="D112" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E112" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7604,10 +7603,10 @@
         <v>106</v>
       </c>
       <c r="C113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D113" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E113" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7626,10 +7625,10 @@
         <v>107</v>
       </c>
       <c r="C114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D114" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E114" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7648,10 +7647,10 @@
         <v>108</v>
       </c>
       <c r="C115" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="D115" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E115" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7670,10 +7669,10 @@
         <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D116" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E116" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7692,10 +7691,10 @@
         <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D117" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E117" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7714,10 +7713,10 @@
         <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D118" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E118" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7739,7 +7738,7 @@
         <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E119" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7758,10 +7757,10 @@
         <v>113</v>
       </c>
       <c r="C120" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D120" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E120" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7780,10 +7779,10 @@
         <v>114</v>
       </c>
       <c r="C121" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D121" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E121" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7802,10 +7801,10 @@
         <v>115</v>
       </c>
       <c r="C122" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D122" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E122" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7824,10 +7823,10 @@
         <v>116</v>
       </c>
       <c r="C123" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E123" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7846,10 +7845,10 @@
         <v>117</v>
       </c>
       <c r="C124" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D124" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E124" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7868,10 +7867,10 @@
         <v>118</v>
       </c>
       <c r="C125" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D125" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E125" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7890,10 +7889,10 @@
         <v>119</v>
       </c>
       <c r="C126" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E126" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7912,10 +7911,10 @@
         <v>120</v>
       </c>
       <c r="C127" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D127" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E127" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7934,10 +7933,10 @@
         <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D128" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E128" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7956,10 +7955,10 @@
         <v>122</v>
       </c>
       <c r="C129" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="D129" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E129" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -7978,10 +7977,10 @@
         <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="D130" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E130" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8000,10 +7999,10 @@
         <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="D131" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E131" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8022,10 +8021,10 @@
         <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="D132" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E132" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8044,10 +8043,10 @@
         <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="D133" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="E133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8066,10 +8065,10 @@
         <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D134" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E134" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8088,10 +8087,10 @@
         <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D135" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E135" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8110,10 +8109,10 @@
         <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D136" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E136" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8132,10 +8131,10 @@
         <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D137" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="E137" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8154,10 +8153,10 @@
         <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D138" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E138" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8176,10 +8175,10 @@
         <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D139" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E139" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8198,10 +8197,10 @@
         <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D140" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E140" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8220,10 +8219,10 @@
         <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D141" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E141" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8242,10 +8241,10 @@
         <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D142" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E142" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8264,10 +8263,10 @@
         <v>136</v>
       </c>
       <c r="C143" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E143" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8286,10 +8285,10 @@
         <v>137</v>
       </c>
       <c r="C144" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D144" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E144" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8308,10 +8307,10 @@
         <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D145" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E145" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8330,10 +8329,10 @@
         <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="D146" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E146" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8352,10 +8351,10 @@
         <v>140</v>
       </c>
       <c r="C147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D147" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E147" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8374,10 +8373,10 @@
         <v>141</v>
       </c>
       <c r="C148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D148" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E148" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8396,10 +8395,10 @@
         <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D149" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E149" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8418,10 +8417,10 @@
         <v>143</v>
       </c>
       <c r="C150" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D150" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E150" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8440,10 +8439,10 @@
         <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D151" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E151" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8462,10 +8461,10 @@
         <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D152" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E152" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8484,10 +8483,10 @@
         <v>146</v>
       </c>
       <c r="C153" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D153" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E153" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8506,10 +8505,10 @@
         <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E154" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8528,10 +8527,10 @@
         <v>148</v>
       </c>
       <c r="C155" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D155" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E155" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8550,10 +8549,10 @@
         <v>149</v>
       </c>
       <c r="C156" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="D156" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E156" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8572,10 +8571,10 @@
         <v>150</v>
       </c>
       <c r="C157" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="D157" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E157" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8594,10 +8593,10 @@
         <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D158" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E158" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8616,10 +8615,10 @@
         <v>152</v>
       </c>
       <c r="C159" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D159" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E159" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8638,10 +8637,10 @@
         <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D160" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E160" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8660,10 +8659,10 @@
         <v>154</v>
       </c>
       <c r="C161" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D161" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E161" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8682,10 +8681,10 @@
         <v>155</v>
       </c>
       <c r="C162" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D162" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E162" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8704,10 +8703,10 @@
         <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D163" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E163" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8726,10 +8725,10 @@
         <v>157</v>
       </c>
       <c r="C164" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D164" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E164" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8748,10 +8747,10 @@
         <v>158</v>
       </c>
       <c r="C165" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D165" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E165" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8770,10 +8769,10 @@
         <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="D166" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E166" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8792,10 +8791,10 @@
         <v>160</v>
       </c>
       <c r="C167" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D167" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E167" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8814,10 +8813,10 @@
         <v>161</v>
       </c>
       <c r="C168" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D168" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E168" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8830,16 +8829,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="B169" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="C169" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D169" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="E169" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8858,10 +8857,10 @@
         <v>162</v>
       </c>
       <c r="C170" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D170" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E170" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8880,10 +8879,10 @@
         <v>163</v>
       </c>
       <c r="C171" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D171" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E171" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8902,10 +8901,10 @@
         <v>164</v>
       </c>
       <c r="C172" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D172" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E172" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8924,10 +8923,10 @@
         <v>165</v>
       </c>
       <c r="C173" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D173" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E173" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8946,10 +8945,10 @@
         <v>166</v>
       </c>
       <c r="C174" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D174" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E174" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8968,10 +8967,10 @@
         <v>167</v>
       </c>
       <c r="C175" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D175" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E175" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -8990,10 +8989,10 @@
         <v>168</v>
       </c>
       <c r="C176" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D176" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E176" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9012,10 +9011,10 @@
         <v>169</v>
       </c>
       <c r="C177" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="D177" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E177" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9034,10 +9033,10 @@
         <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D178" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E178" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9056,10 +9055,10 @@
         <v>171</v>
       </c>
       <c r="C179" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D179" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E179" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9078,10 +9077,10 @@
         <v>172</v>
       </c>
       <c r="C180" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D180" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E180" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9100,10 +9099,10 @@
         <v>173</v>
       </c>
       <c r="C181" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D181" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E181" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9122,10 +9121,10 @@
         <v>174</v>
       </c>
       <c r="C182" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D182" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E182" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9144,10 +9143,10 @@
         <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D183" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E183" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9166,10 +9165,10 @@
         <v>176</v>
       </c>
       <c r="C184" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D184" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E184" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9188,10 +9187,10 @@
         <v>177</v>
       </c>
       <c r="C185" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D185" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E185" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9210,10 +9209,10 @@
         <v>178</v>
       </c>
       <c r="C186" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D186" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E186" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9232,10 +9231,10 @@
         <v>179</v>
       </c>
       <c r="C187" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D187" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E187" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9254,10 +9253,10 @@
         <v>180</v>
       </c>
       <c r="C188" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D188" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E188" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9276,10 +9275,10 @@
         <v>181</v>
       </c>
       <c r="C189" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D189" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E189" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9298,10 +9297,10 @@
         <v>182</v>
       </c>
       <c r="C190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D190" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E190" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9320,10 +9319,10 @@
         <v>183</v>
       </c>
       <c r="C191" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D191" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E191" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9345,7 +9344,7 @@
         <v>197</v>
       </c>
       <c r="D192" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E192" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9367,7 +9366,7 @@
         <v>184</v>
       </c>
       <c r="D193" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E193" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9389,7 +9388,7 @@
         <v>185</v>
       </c>
       <c r="D194" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E194" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9408,10 +9407,10 @@
         <v>186</v>
       </c>
       <c r="C195" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="D195" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E195" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9430,10 +9429,10 @@
         <v>187</v>
       </c>
       <c r="C196" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D196" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E196" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9452,10 +9451,10 @@
         <v>188</v>
       </c>
       <c r="C197" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D197" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E197" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9474,10 +9473,10 @@
         <v>189</v>
       </c>
       <c r="C198" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D198" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E198" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9496,10 +9495,10 @@
         <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D199" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E199" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9518,10 +9517,10 @@
         <v>191</v>
       </c>
       <c r="C200" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="D200" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E200" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9540,10 +9539,10 @@
         <v>192</v>
       </c>
       <c r="C201" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D201" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E201" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9562,10 +9561,10 @@
         <v>193</v>
       </c>
       <c r="C202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D202" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E202" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9584,10 +9583,10 @@
         <v>194</v>
       </c>
       <c r="C203" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D203" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E203" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9606,10 +9605,10 @@
         <v>195</v>
       </c>
       <c r="C204" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D204" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E204" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9628,10 +9627,10 @@
         <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D205" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E205" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9650,10 +9649,10 @@
         <v>198</v>
       </c>
       <c r="C206" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D206" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E206" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9672,10 +9671,10 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="D207" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E207" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9694,10 +9693,10 @@
         <v>200</v>
       </c>
       <c r="C208" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D208" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E208" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9716,10 +9715,10 @@
         <v>201</v>
       </c>
       <c r="C209" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D209" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E209" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9738,10 +9737,10 @@
         <v>202</v>
       </c>
       <c r="C210" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D210" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E210" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9760,10 +9759,10 @@
         <v>203</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D211" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E211" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9782,10 +9781,10 @@
         <v>204</v>
       </c>
       <c r="C212" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D212" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E212" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9798,16 +9797,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="B213" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="D213" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="E213" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9826,10 +9825,10 @@
         <v>205</v>
       </c>
       <c r="C214" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="D214" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E214" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9848,10 +9847,10 @@
         <v>206</v>
       </c>
       <c r="C215" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D215" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E215" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9870,10 +9869,10 @@
         <v>207</v>
       </c>
       <c r="C216" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="D216" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E216" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9892,10 +9891,10 @@
         <v>208</v>
       </c>
       <c r="C217" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D217" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E217" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9914,10 +9913,10 @@
         <v>209</v>
       </c>
       <c r="C218" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="D218" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E218" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9936,10 +9935,10 @@
         <v>210</v>
       </c>
       <c r="C219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D219" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E219" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9958,10 +9957,10 @@
         <v>211</v>
       </c>
       <c r="C220" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D220" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E220" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -9980,10 +9979,10 @@
         <v>212</v>
       </c>
       <c r="C221" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D221" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E221" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10002,10 +10001,10 @@
         <v>213</v>
       </c>
       <c r="C222" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="D222" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E222" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10024,10 +10023,10 @@
         <v>214</v>
       </c>
       <c r="C223" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="D223" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E223" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10046,10 +10045,10 @@
         <v>215</v>
       </c>
       <c r="C224" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="D224" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="E224" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10068,10 +10067,10 @@
         <v>216</v>
       </c>
       <c r="C225" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="D225" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E225" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10090,10 +10089,10 @@
         <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D226" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E226" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10112,10 +10111,10 @@
         <v>218</v>
       </c>
       <c r="C227" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="D227" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E227" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10134,10 +10133,10 @@
         <v>219</v>
       </c>
       <c r="C228" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D228" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E228" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10156,10 +10155,10 @@
         <v>220</v>
       </c>
       <c r="C229" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="D229" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E229" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10178,10 +10177,10 @@
         <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D230" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E230" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10200,10 +10199,10 @@
         <v>222</v>
       </c>
       <c r="C231" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D231" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E231" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10222,10 +10221,10 @@
         <v>223</v>
       </c>
       <c r="C232" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D232" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E232" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10244,10 +10243,10 @@
         <v>224</v>
       </c>
       <c r="C233" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D233" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E233" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10266,10 +10265,10 @@
         <v>225</v>
       </c>
       <c r="C234" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="D234" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E234" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10282,16 +10281,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="B235" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C235" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="D235" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="E235" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10310,10 +10309,10 @@
         <v>226</v>
       </c>
       <c r="C236" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D236" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E236" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10332,10 +10331,10 @@
         <v>227</v>
       </c>
       <c r="C237" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D237" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E237" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10354,10 +10353,10 @@
         <v>228</v>
       </c>
       <c r="C238" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D238" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E238" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10376,10 +10375,10 @@
         <v>229</v>
       </c>
       <c r="C239" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="D239" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E239" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10398,10 +10397,10 @@
         <v>230</v>
       </c>
       <c r="C240" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D240" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E240" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10420,10 +10419,10 @@
         <v>231</v>
       </c>
       <c r="C241" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="D241" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E241" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10442,10 +10441,10 @@
         <v>232</v>
       </c>
       <c r="C242" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="D242" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E242" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10464,10 +10463,10 @@
         <v>233</v>
       </c>
       <c r="C243" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="D243" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E243" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10486,10 +10485,10 @@
         <v>234</v>
       </c>
       <c r="C244" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="D244" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E244" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10508,10 +10507,10 @@
         <v>235</v>
       </c>
       <c r="C245" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D245" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E245" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10530,10 +10529,10 @@
         <v>236</v>
       </c>
       <c r="C246" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D246" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E246" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10552,10 +10551,10 @@
         <v>237</v>
       </c>
       <c r="C247" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D247" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="E247" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10574,10 +10573,10 @@
         <v>238</v>
       </c>
       <c r="C248" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="D248" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="E248" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10596,10 +10595,10 @@
         <v>239</v>
       </c>
       <c r="C249" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D249" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="E249" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10618,10 +10617,10 @@
         <v>240</v>
       </c>
       <c r="C250" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D250" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E250" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10640,10 +10639,10 @@
         <v>241</v>
       </c>
       <c r="C251" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D251" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="E251" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10662,10 +10661,10 @@
         <v>242</v>
       </c>
       <c r="C252" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="D252" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="E252" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10684,10 +10683,10 @@
         <v>243</v>
       </c>
       <c r="C253" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D253" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="E253" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10706,10 +10705,10 @@
         <v>244</v>
       </c>
       <c r="C254" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D254" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E254" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10728,10 +10727,10 @@
         <v>245</v>
       </c>
       <c r="C255" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="D255" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E255" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10750,10 +10749,10 @@
         <v>246</v>
       </c>
       <c r="C256" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D256" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E256" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10772,10 +10771,10 @@
         <v>247</v>
       </c>
       <c r="C257" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="D257" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E257" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10794,10 +10793,10 @@
         <v>248</v>
       </c>
       <c r="C258" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D258" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E258" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10816,10 +10815,10 @@
         <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D259" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E259" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10838,10 +10837,10 @@
         <v>250</v>
       </c>
       <c r="C260" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D260" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E260" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10860,10 +10859,10 @@
         <v>251</v>
       </c>
       <c r="C261" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D261" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E261" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10882,10 +10881,10 @@
         <v>252</v>
       </c>
       <c r="C262" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D262" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E262" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10904,10 +10903,10 @@
         <v>253</v>
       </c>
       <c r="C263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D263" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E263" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10926,10 +10925,10 @@
         <v>254</v>
       </c>
       <c r="C264" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D264" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E264" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10948,10 +10947,10 @@
         <v>255</v>
       </c>
       <c r="C265" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D265" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E265" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10970,10 +10969,10 @@
         <v>256</v>
       </c>
       <c r="C266" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D266" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E266" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -10992,10 +10991,10 @@
         <v>257</v>
       </c>
       <c r="C267" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="D267" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E267" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11014,10 +11013,10 @@
         <v>258</v>
       </c>
       <c r="C268" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D268" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E268" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11036,10 +11035,10 @@
         <v>259</v>
       </c>
       <c r="C269" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D269" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E269" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11058,10 +11057,10 @@
         <v>260</v>
       </c>
       <c r="C270" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D270" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E270" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11080,10 +11079,10 @@
         <v>261</v>
       </c>
       <c r="C271" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="D271" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="E271" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11102,10 +11101,10 @@
         <v>262</v>
       </c>
       <c r="C272" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="D272" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="E272" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11124,10 +11123,10 @@
         <v>263</v>
       </c>
       <c r="C273" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="D273" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="E273" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11146,10 +11145,10 @@
         <v>264</v>
       </c>
       <c r="C274" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="D274" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="E274" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11168,10 +11167,10 @@
         <v>265</v>
       </c>
       <c r="C275" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D275" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E275" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11190,10 +11189,10 @@
         <v>266</v>
       </c>
       <c r="C276" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D276" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E276" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11212,10 +11211,10 @@
         <v>267</v>
       </c>
       <c r="C277" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D277" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E277" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11234,10 +11233,10 @@
         <v>268</v>
       </c>
       <c r="C278" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D278" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E278" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11256,10 +11255,10 @@
         <v>269</v>
       </c>
       <c r="C279" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D279" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E279" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11278,10 +11277,10 @@
         <v>270</v>
       </c>
       <c r="C280" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="D280" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E280" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11300,10 +11299,10 @@
         <v>271</v>
       </c>
       <c r="C281" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D281" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E281" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11322,10 +11321,10 @@
         <v>272</v>
       </c>
       <c r="C282" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="D282" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E282" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11344,10 +11343,10 @@
         <v>273</v>
       </c>
       <c r="C283" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D283" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E283" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11366,10 +11365,10 @@
         <v>274</v>
       </c>
       <c r="C284" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="D284" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E284" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11388,10 +11387,10 @@
         <v>275</v>
       </c>
       <c r="C285" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D285" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E285" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11410,10 +11409,10 @@
         <v>276</v>
       </c>
       <c r="C286" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="D286" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E286" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11432,10 +11431,10 @@
         <v>277</v>
       </c>
       <c r="C287" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D287" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E287" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11457,7 +11456,7 @@
         <v>278</v>
       </c>
       <c r="D288" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E288" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11476,10 +11475,10 @@
         <v>279</v>
       </c>
       <c r="C289" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="D289" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E289" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11498,10 +11497,10 @@
         <v>280</v>
       </c>
       <c r="C290" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="D290" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E290" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11520,10 +11519,10 @@
         <v>281</v>
       </c>
       <c r="C291" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D291" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E291" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11542,10 +11541,10 @@
         <v>282</v>
       </c>
       <c r="C292" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D292" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E292" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11564,10 +11563,10 @@
         <v>283</v>
       </c>
       <c r="C293" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D293" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E293" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11586,10 +11585,10 @@
         <v>284</v>
       </c>
       <c r="C294" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="D294" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E294" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11608,10 +11607,10 @@
         <v>285</v>
       </c>
       <c r="C295" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D295" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E295" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11630,10 +11629,10 @@
         <v>286</v>
       </c>
       <c r="C296" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="D296" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E296" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11652,10 +11651,10 @@
         <v>287</v>
       </c>
       <c r="C297" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D297" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E297" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11674,10 +11673,10 @@
         <v>288</v>
       </c>
       <c r="C298" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D298" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E298" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11696,10 +11695,10 @@
         <v>289</v>
       </c>
       <c r="C299" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D299" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E299" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11718,10 +11717,10 @@
         <v>290</v>
       </c>
       <c r="C300" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D300" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E300" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11740,10 +11739,10 @@
         <v>291</v>
       </c>
       <c r="C301" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D301" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="E301" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11762,10 +11761,10 @@
         <v>292</v>
       </c>
       <c r="C302" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="D302" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E302" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11784,10 +11783,10 @@
         <v>293</v>
       </c>
       <c r="C303" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D303" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E303" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11806,10 +11805,10 @@
         <v>294</v>
       </c>
       <c r="C304" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D304" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E304" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11828,10 +11827,10 @@
         <v>295</v>
       </c>
       <c r="C305" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="D305" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E305" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11850,10 +11849,10 @@
         <v>296</v>
       </c>
       <c r="C306" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D306" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E306" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11872,10 +11871,10 @@
         <v>297</v>
       </c>
       <c r="C307" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="D307" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E307" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11897,7 +11896,7 @@
         <v>298</v>
       </c>
       <c r="D308" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E308" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11916,10 +11915,10 @@
         <v>299</v>
       </c>
       <c r="C309" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="D309" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E309" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11938,10 +11937,10 @@
         <v>300</v>
       </c>
       <c r="C310" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="D310" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E310" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11960,10 +11959,10 @@
         <v>301</v>
       </c>
       <c r="C311" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="D311" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E311" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -11982,10 +11981,10 @@
         <v>302</v>
       </c>
       <c r="C312" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="D312" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E312" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12004,10 +12003,10 @@
         <v>303</v>
       </c>
       <c r="C313" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D313" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E313" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12026,10 +12025,10 @@
         <v>304</v>
       </c>
       <c r="C314" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="D314" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E314" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12048,10 +12047,10 @@
         <v>305</v>
       </c>
       <c r="C315" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="D315" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E315" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12070,10 +12069,10 @@
         <v>306</v>
       </c>
       <c r="C316" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D316" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E316" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12092,10 +12091,10 @@
         <v>307</v>
       </c>
       <c r="C317" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="D317" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E317" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12114,10 +12113,10 @@
         <v>308</v>
       </c>
       <c r="C318" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D318" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E318" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12136,10 +12135,10 @@
         <v>309</v>
       </c>
       <c r="C319" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D319" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E319" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12152,16 +12151,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="B320" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="C320" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="D320" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="E320" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12180,10 +12179,10 @@
         <v>310</v>
       </c>
       <c r="C321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D321" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E321" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12202,10 +12201,10 @@
         <v>311</v>
       </c>
       <c r="C322" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D322" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E322" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12224,10 +12223,10 @@
         <v>312</v>
       </c>
       <c r="C323" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="D323" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E323" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12246,10 +12245,10 @@
         <v>313</v>
       </c>
       <c r="C324" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="D324" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E324" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12268,10 +12267,10 @@
         <v>314</v>
       </c>
       <c r="C325" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D325" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E325" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12290,10 +12289,10 @@
         <v>315</v>
       </c>
       <c r="C326" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D326" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E326" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12312,10 +12311,10 @@
         <v>316</v>
       </c>
       <c r="C327" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="D327" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E327" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12334,10 +12333,10 @@
         <v>317</v>
       </c>
       <c r="C328" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="D328" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E328" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12356,10 +12355,10 @@
         <v>318</v>
       </c>
       <c r="C329" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="D329" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E329" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12372,16 +12371,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="B330" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="C330" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="D330" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="E330" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12393,39 +12392,39 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B331" t="s">
-        <v>319</v>
+      <c r="A331" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1554</v>
       </c>
       <c r="C331" t="s">
-        <v>609</v>
+        <v>1555</v>
       </c>
       <c r="D331" t="s">
-        <v>1000</v>
+        <v>1556</v>
       </c>
       <c r="E331" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Error trying to parse the content of the imported Collection Configuration file. Error:": "Erreur lors de la tentative d'analyse du contenu du fichier de configuration de collection importé. Erreur:",</v>
+        <v xml:space="preserve">  "Error trying to parse the content of the imported Collection Configuration file. Error: {errorMessage}": "Erreur lors de la tentative d'analyse du contenu du fichier de configuration de collection importé. Erreur: {errorMessage}",</v>
       </c>
       <c r="F331" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Error trying to parse the content of the imported Collection Configuration file. Error:": "خطأ في محاولة تحليل محتوى ملف تكوين المجموعة الذي تم استيراده. خطأ:",</v>
+        <v xml:space="preserve">  "Error trying to parse the content of the imported Collection Configuration file. Error: {errorMessage}": "خطأ في محاولة تحليل محتوى ملف تكوين المجموعة الذي تم استيراده. الخطأ: {errorMessage}",</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C332" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D332" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E332" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12438,16 +12437,16 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="B333" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="C333" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="D333" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="E333" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12460,16 +12459,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="B334" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="C334" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="D334" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="E334" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12482,16 +12481,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="B335" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="C335" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="D335" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="E335" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12504,16 +12503,16 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B336" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C336" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="D336" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E336" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12526,16 +12525,16 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B337" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C337" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="D337" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E337" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12548,16 +12547,16 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B338" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C338" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D338" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E338" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12570,16 +12569,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D339" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E339" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12592,16 +12591,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B340" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C340" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D340" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E340" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12614,16 +12613,16 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B341" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D341" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E341" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12636,16 +12635,16 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B342" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C342" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D342" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E342" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12658,16 +12657,16 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B343" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C343" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D343" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E343" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12680,16 +12679,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C344" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D344" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E344" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12702,16 +12701,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B345" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C345" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D345" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E345" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12724,16 +12723,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B346" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C346" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D346" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E346" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12746,16 +12745,16 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C347" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D347" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E347" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12768,16 +12767,16 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B348" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C348" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="D348" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E348" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12790,16 +12789,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B349" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C349" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D349" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E349" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12812,16 +12811,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B350" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C350" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="D350" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E350" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12834,16 +12833,16 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B351" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C351" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D351" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E351" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12856,16 +12855,16 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B352" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C352" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D352" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E352" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12878,16 +12877,16 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B353" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C353" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D353" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E353" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12900,16 +12899,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B354" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C354" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="D354" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E354" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12922,16 +12921,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B355" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C355" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D355" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E355" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12944,16 +12943,16 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B356" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C356" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="D356" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E356" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12966,16 +12965,16 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B357" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C357" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D357" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E357" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -12988,16 +12987,16 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C358" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="D358" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E358" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13010,16 +13009,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B359" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C359" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D359" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E359" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13032,16 +13031,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B360" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C360" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D360" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E360" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13054,16 +13053,16 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B361" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C361" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D361" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E361" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13076,16 +13075,16 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B362" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C362" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="D362" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E362" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13098,16 +13097,16 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B363" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C363" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="D363" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E363" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13120,16 +13119,16 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B364" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C364" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="D364" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E364" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13142,16 +13141,16 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B365" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C365" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="D365" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E365" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13164,16 +13163,16 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B366" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C366" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="D366" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E366" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13186,16 +13185,16 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B367" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C367" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="D367" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E367" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13208,16 +13207,16 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B368" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C368" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D368" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E368" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13230,16 +13229,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B369" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C369" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D369" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E369" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13252,16 +13251,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B370" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C370" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D370" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E370" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13274,16 +13273,16 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B371" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C371" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D371" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E371" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13296,16 +13295,16 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B372" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C372" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D372" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E372" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13318,16 +13317,16 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B373" t="s">
-        <v>358</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>1493</v>
+        <v>357</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1483</v>
       </c>
       <c r="D373" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E373" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13340,16 +13339,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B374" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C374" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D374" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E374" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13362,16 +13361,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B375" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C375" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="D375" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E375" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13384,16 +13383,16 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B376" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C376" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="D376" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E376" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13406,16 +13405,16 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B377" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C377" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="D377" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E377" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13428,16 +13427,16 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B378" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C378" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="D378" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E378" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13450,16 +13449,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B379" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C379" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="D379" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E379" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13472,16 +13471,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B380" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C380" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="D380" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E380" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13494,16 +13493,16 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B381" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C381" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D381" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E381" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13516,16 +13515,16 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B382" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C382" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="D382" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E382" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13538,16 +13537,16 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B383" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C383" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D383" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E383" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13560,16 +13559,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B384" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C384" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D384" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E384" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13582,16 +13581,16 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B385" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C385" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="D385" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E385" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13610,10 +13609,10 @@
         <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D386" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E386" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13632,10 +13631,10 @@
         <v>0</v>
       </c>
       <c r="C387" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D387" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E387" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13648,16 +13647,16 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B388" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C388" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D388" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E388" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13670,16 +13669,16 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B389" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C389" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="D389" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E389" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13692,16 +13691,16 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B390" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C390" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="D390" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="E390" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13714,16 +13713,16 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B391" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C391" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="D391" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E391" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13736,16 +13735,16 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B392" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C392" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="D392" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E392" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13758,16 +13757,16 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B393" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C393" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="D393" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E393" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13780,16 +13779,16 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B394" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C394" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="D394" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E394" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13802,16 +13801,16 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B395" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C395" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="D395" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E395" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13824,16 +13823,16 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B396" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C396" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="D396" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E396" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13846,16 +13845,16 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B397" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C397" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="D397" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E397" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13868,16 +13867,16 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B398" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C398" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D398" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E398" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13890,16 +13889,16 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B399" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C399" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="D399" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E399" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13912,16 +13911,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B400" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C400" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="D400" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E400" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13934,16 +13933,16 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B401" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C401" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D401" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E401" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13956,16 +13955,16 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B402" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C402" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D402" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E402" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -13978,16 +13977,16 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C403" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D403" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E403" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14000,16 +13999,16 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C404" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="D404" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E404" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14022,16 +14021,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B405" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D405" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E405" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14044,16 +14043,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B406" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="D406" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E406" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14066,16 +14065,16 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B407" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C407" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="D407" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E407" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14088,16 +14087,16 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B408" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C408" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="D408" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E408" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14110,16 +14109,16 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B409" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C409" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D409" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E409" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14132,16 +14131,16 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B410" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="D410" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E410" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14154,16 +14153,16 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B411" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C411" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="D411" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E411" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14176,16 +14175,16 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B412" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="D412" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E412" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14198,16 +14197,16 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B413" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C413" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="D413" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E413" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14220,16 +14219,16 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B414" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C414" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="D414" t="s">
-        <v>678</v>
+        <v>1557</v>
       </c>
       <c r="E414" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14237,21 +14236,21 @@
       </c>
       <c r="F414" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Processed Messages: {processedLogsCountOverProcessedLogsMaxSize}% ({processedLogsCount} / {processedLogsMaxSize}).": "الرسائل التي تمت معالجتها: {ProcessingLogsCountOverProcessedLogsMaxSize}٪ ({processorLogsCount} / {processorLogsMaxSize}).",</v>
+        <v xml:space="preserve">  "Processed Messages: {processedLogsCountOverProcessedLogsMaxSize}% ({processedLogsCount} / {processedLogsMaxSize}).": "الرسائل التي تمت معالجتها: {processedLogsCountOverProcessedLogsMaxSize}٪ ({processedLogsCount} / {processedLogsMaxSize}).",</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B415" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C415" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="D415" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E415" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14264,16 +14263,16 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B416" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C416" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="D416" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E416" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14286,16 +14285,16 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B417" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C417" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D417" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E417" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14308,16 +14307,16 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B418" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="D418" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E418" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14330,16 +14329,16 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B419" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D419" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E419" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14352,16 +14351,16 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B420" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D420" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E420" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14374,16 +14373,16 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B421" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="D421" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E421" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14396,16 +14395,16 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B422" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="D422" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E422" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14418,16 +14417,16 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B423" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="D423" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E423" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14440,16 +14439,16 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B424" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="D424" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E424" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14462,16 +14461,16 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="D425" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E425" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14484,16 +14483,16 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B426" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D426" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E426" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14506,16 +14505,16 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B427" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D427" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E427" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14528,16 +14527,16 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B428" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D428" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E428" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14550,16 +14549,16 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B429" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="D429" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E429" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14572,16 +14571,16 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B430" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D430" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E430" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14594,16 +14593,16 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B431" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="D431" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E431" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14616,16 +14615,16 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B432" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="D432" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E432" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14638,16 +14637,16 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B433" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="D433" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E433" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14660,16 +14659,16 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B434" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="D434" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E434" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14682,16 +14681,16 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B435" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D435" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E435" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14704,16 +14703,16 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B436" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D436" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E436" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14726,16 +14725,16 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B437" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D437" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E437" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14748,16 +14747,16 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B438" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D438" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E438" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14770,16 +14769,16 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B439" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D439" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E439" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14792,16 +14791,16 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B440" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="D440" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E440" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14814,16 +14813,16 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B441" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="D441" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E441" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14836,16 +14835,16 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B442" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C442" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="D442" t="s">
-        <v>1101</v>
+        <v>1558</v>
       </c>
       <c r="E442" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14853,21 +14852,21 @@
       </c>
       <c r="F442" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Relative frequency {seenInLogCountOverMaxSeenInLog}% ({seenInLogCount} / {maxSeenInLog}).": "التردد النسبي {sawInLogCountOverMaxSeenInLog}٪ ({sawInLogCount} / {maxSeenInLog}).",</v>
+        <v xml:space="preserve">  "Relative frequency {seenInLogCountOverMaxSeenInLog}% ({seenInLogCount} / {maxSeenInLog}).": "التردد النسبي {seenInLogCountOverMaxSeenInLog}٪ ({seenInLogCount} / {maxSeenInLog}).",</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B443" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C443" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="D443" t="s">
-        <v>1102</v>
+        <v>1559</v>
       </c>
       <c r="E443" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14875,21 +14874,21 @@
       </c>
       <c r="F443" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "N/A | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}). | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}).": "غير متاح | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).",</v>
+        <v xml:space="preserve">  "N/A | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}). | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}).": "غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).",</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B444" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C444" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="D444" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E444" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14902,16 +14901,16 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B445" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C445" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D445" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E445" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14924,16 +14923,16 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B446" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C446" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D446" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E446" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14946,16 +14945,16 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B447" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C447" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="D447" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E447" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14968,16 +14967,16 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B448" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C448" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="D448" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="E448" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14990,16 +14989,16 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B449" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C449" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="D449" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="E449" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15012,16 +15011,16 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B450" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C450" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="D450" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="E450" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15034,16 +15033,16 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B451" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="D451" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E451" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15056,16 +15055,16 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B452" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C452" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="D452" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E452" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15078,16 +15077,16 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B453" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C453" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="D453" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E453" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15100,16 +15099,16 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B454" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C454" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="D454" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E454" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15122,16 +15121,16 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B455" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C455" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="D455" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E455" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15144,16 +15143,16 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B456" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C456" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="D456" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="E456" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15166,16 +15165,16 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B457" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C457" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="D457" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E457" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15188,16 +15187,16 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="B458" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="C458" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="D458" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E458" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15210,16 +15209,16 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="B459" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="C459" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="D459" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E459" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15232,16 +15231,16 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B460" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C460" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="D460" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E460" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15254,16 +15253,16 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B461" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C461" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="D461" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E461" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15276,16 +15275,16 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B462" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C462" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="D462" t="s">
-        <v>1119</v>
+        <v>1560</v>
       </c>
       <c r="E462" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15293,21 +15292,21 @@
       </c>
       <c r="F462" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "| One step has been skipped. | {count} steps have been skipped.": "| تم تخطي خطوة واحدة. | تم تخطي {عدد} من الخطوات.",</v>
+        <v xml:space="preserve">  "| One step has been skipped. | {count} steps have been skipped.": "| تم تخطي خطوة واحدة. | تم تخطي {count} من الخطوات.",</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B463" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C463" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="D463" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="E463" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15320,16 +15319,16 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B464" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C464" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="D464" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E464" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15342,16 +15341,16 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B465" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C465" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="D465" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="E465" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15364,16 +15363,16 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B466" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C466" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="D466" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E466" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15386,16 +15385,16 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B467" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C467" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="D467" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="E467" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15408,16 +15407,16 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B468" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C468" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="D468" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E468" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15430,16 +15429,16 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B469" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="D469" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="E469" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15452,16 +15451,16 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B470" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C470" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="D470" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="E470" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15474,16 +15473,16 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B471" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C471" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="D471" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="E471" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15496,16 +15495,16 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B472" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C472" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D472" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="E472" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15518,16 +15517,16 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B473" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C473" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="D473" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="E473" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15540,16 +15539,16 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B474" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C474" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D474" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E474" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15562,16 +15561,16 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B475" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C475" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="D475" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E475" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15584,16 +15583,16 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="B476" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="C476" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="D476" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="E476" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15606,16 +15605,16 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B477" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C477" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="D477" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="E477" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15628,16 +15627,16 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B478" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C478" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="D478" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="E478" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15650,16 +15649,16 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B479" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C479" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="D479" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E479" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15672,16 +15671,16 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B480" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C480" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D480" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E480" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15694,16 +15693,16 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B481" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C481" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="D481" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="E481" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15716,16 +15715,16 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B482" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C482" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="D482" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="E482" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15738,16 +15737,16 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="B483" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="C483" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="D483" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="E483" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15760,16 +15759,16 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B484" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C484" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="D484" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E484" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15782,16 +15781,16 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="B485" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="C485" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="D485" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="E485" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15804,16 +15803,16 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B486" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C486" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D486" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E486" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15826,16 +15825,16 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B487" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C487" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="D487" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="E487" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15848,16 +15847,16 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B488" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C488" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="D488" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E488" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15870,16 +15869,16 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B489" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C489" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="D489" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="E489" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15892,16 +15891,16 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B490" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C490" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="D490" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="E490" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15914,16 +15913,16 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B491" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C491" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="D491" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E491" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15936,16 +15935,16 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="B492" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="C492" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D492" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="E492" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15958,16 +15957,16 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="B493" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C493" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="D493" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="E493" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -15980,16 +15979,16 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="B494" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C494" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="D494" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="E494" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16002,16 +16001,16 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B495" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C495" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="D495" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="E495" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16024,16 +16023,16 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="B496" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C496" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="D496" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="E496" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16046,16 +16045,16 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B497" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C497" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="D497" t="s">
-        <v>1290</v>
+        <v>1561</v>
       </c>
       <c r="E497" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16063,21 +16062,21 @@
       </c>
       <c r="F497" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Detected fields: {detectedFields}": "الحقول المكتشفة: {الكشف عن الحقول}",</v>
+        <v xml:space="preserve">  "Detected fields: {detectedFields}": "الحقول المكتشفة: {detectedFields}",</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="B498" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C498" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="D498" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="E498" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16090,16 +16089,16 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="B499" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="C499" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="D499" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="E499" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16112,16 +16111,16 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="B500" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C500" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="D500" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="E500" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16134,16 +16133,16 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="B501" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C501" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="D501" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="E501" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16156,16 +16155,16 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="B502" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C502" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="D502" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="E502" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16178,16 +16177,16 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="B503" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C503" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="D503" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="E503" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16200,16 +16199,16 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="B504" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="C504" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="D504" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="E504" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16222,16 +16221,16 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="B505" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="C505" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="D505" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="E505" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16244,16 +16243,16 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="B506" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="C506" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="D506" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="E506" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16266,16 +16265,16 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="B507" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="C507" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="D507" t="s">
-        <v>1300</v>
+        <v>1562</v>
       </c>
       <c r="E507" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16283,21 +16282,21 @@
       </c>
       <c r="F507" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "EZ Market Place : Pipeline Templates : {ezMarketPipelineTemplateName}": "EZ Market Place: Pipeline Templates: {ezMarketPipelineTemplateName}",</v>
+        <v xml:space="preserve">  "EZ Market Place : Pipeline Templates : {ezMarketPipelineTemplateName}": "EZ Marketplace : قوالب خطوط الأنابيب : {ezMarket Pipeline Template Name}",</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="B508" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="C508" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="D508" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="E508" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16310,16 +16309,16 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="B509" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="C509" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="D509" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="E509" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16332,16 +16331,16 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="B510" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C510" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="D510" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="E510" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16354,16 +16353,16 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B511" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C511" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="D511" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="E511" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16376,16 +16375,16 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="B512" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="C512" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D512" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="E512" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16398,16 +16397,16 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B513" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="C513" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="D513" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="E513" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16420,16 +16419,16 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="B514" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C514" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="D514" t="s">
-        <v>1307</v>
+        <v>1563</v>
       </c>
       <c r="E514" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16437,21 +16436,21 @@
       </c>
       <c r="F514" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "Seen in {seenInOverMaxSeenInLog}% of logs in the sample ({seenIn}/{maxSeenInLog})": "تمت مشاهدته في {sawInOverMaxSeenInLog}٪ من السجلات في العينة ({sawIn} / {maxSeenInLog})",</v>
+        <v xml:space="preserve">  "Seen in {seenInOverMaxSeenInLog}% of logs in the sample ({seenIn}/{maxSeenInLog})": "تمت مشاهدته في {seenInOverMaxSeenInLog}٪ من السجلات في العينة ({seenIn} / {maxSeenInLog})",</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="B515" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="C515" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="D515" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="E515" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16464,16 +16463,16 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="B516" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="C516" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="D516" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="E516" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16486,16 +16485,16 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="B517" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="C517" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="D517" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="E517" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16508,16 +16507,16 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="B518" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C518" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="D518" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="E518" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16530,16 +16529,16 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="B519" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="C519" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="D519" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="E519" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16552,16 +16551,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="B520" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="C520" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="D520" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="E520" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16574,16 +16573,16 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="B521" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C521" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="D521" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="E521" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16596,16 +16595,16 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="B522" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C522" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="D522" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="E522" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16618,16 +16617,16 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="B523" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C523" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="D523" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="E523" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16640,16 +16639,16 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="B524" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="C524" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="D524" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="E524" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16662,16 +16661,16 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="B525" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="C525" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="D525" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="E525" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16684,16 +16683,16 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="B526" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="C526" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="D526" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="E526" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16706,16 +16705,16 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="B527" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="C527" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="D527" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="E527" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16728,16 +16727,16 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="B528" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="C528" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="D528" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="E528" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16750,16 +16749,16 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="B529" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="C529" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="D529" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="E529" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16772,16 +16771,16 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="B530" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="C530" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="D530" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="E530" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16794,16 +16793,16 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="B531" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="C531" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="D531" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="E531" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16816,16 +16815,16 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="B532" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="C532" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="D532" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E532" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16855,7 +16854,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/src/i18n/Translations Master.xlsx
+++ b/frontend/src/i18n/Translations Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logrhythm-my.sharepoint.com/personal/tony_masse_logrhythm_com/Documents/Tony.Masse/Projets/20210331.EZ-Cloud on Legacy SIEM/EZ-Cloud/frontend/src/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="8_{4939A0CD-BDFC-4EBB-81BD-8799C6D6F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FCE4BA-D37E-4ED4-A575-92A100E7B108}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="8_{4939A0CD-BDFC-4EBB-81BD-8799C6D6F8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A42C501-886A-4288-8C3F-1F6F31518AF8}"/>
   <bookViews>
     <workbookView xWindow="75" yWindow="15" windowWidth="57465" windowHeight="15585" xr2:uid="{D456FA7A-7DCE-4D21-9808-82CD4ABFE24B}"/>
   </bookViews>
@@ -4720,19 +4720,19 @@
     <t>التردد النسبي {seenInLogCountOverMaxSeenInLog}٪ ({seenInLogCount} / {maxSeenInLog}).</t>
   </si>
   <si>
-    <t>غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).</t>
-  </si>
-  <si>
     <t>| تم تخطي خطوة واحدة. | تم تخطي {count} من الخطوات.</t>
   </si>
   <si>
     <t>الحقول المكتشفة: {detectedFields}</t>
   </si>
   <si>
-    <t>EZ Marketplace : قوالب خطوط الأنابيب : {ezMarket Pipeline Template Name}</t>
-  </si>
-  <si>
     <t>تمت مشاهدته في {seenInOverMaxSeenInLog}٪ من السجلات في العينة ({seenIn} / {maxSeenInLog})</t>
+  </si>
+  <si>
+    <t>غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}).</t>
+  </si>
+  <si>
+    <t>EZ Marketplace : قوالب خطوط الأنابيب : {ezMarketPipelineTemplateName}</t>
   </si>
 </sst>
 </file>
@@ -5122,7 +5122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CA35AB-CB8B-4C3A-B66F-4EE479C36CCA}">
   <dimension ref="A1:F532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F507" sqref="F507"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14866,7 +14868,7 @@
         <v>1518</v>
       </c>
       <c r="D443" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="E443" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -14874,7 +14876,7 @@
       </c>
       <c r="F443" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "N/A | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}). | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}).": "غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {sawInLogCountOverProcessedLogsCount}٪ من السجلات ({sawInLogCount} / {processorLogsCount}).",</v>
+        <v xml:space="preserve">  "N/A | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}). | Seen in {seenInLogCountOverProcessedLogsCount}% of the logs ({seenInLogCount} / {processedLogsCount}).": "غير متاح | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}). | تمت مشاهدته في {seenInLogCountOverProcessedLogsCount}٪ من السجلات ({seenInLogCount} / {processedLogsCount}).",</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -15284,7 +15286,7 @@
         <v>1529</v>
       </c>
       <c r="D462" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E462" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16054,7 +16056,7 @@
         <v>1397</v>
       </c>
       <c r="D497" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E497" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16274,7 +16276,7 @@
         <v>1398</v>
       </c>
       <c r="D507" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="E507" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
@@ -16282,7 +16284,7 @@
       </c>
       <c r="F507" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[ar]]),"KEY",Table1[[#This Row],[Keys]])</f>
-        <v xml:space="preserve">  "EZ Market Place : Pipeline Templates : {ezMarketPipelineTemplateName}": "EZ Marketplace : قوالب خطوط الأنابيب : {ezMarket Pipeline Template Name}",</v>
+        <v xml:space="preserve">  "EZ Market Place : Pipeline Templates : {ezMarketPipelineTemplateName}": "EZ Marketplace : قوالب خطوط الأنابيب : {ezMarketPipelineTemplateName}",</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -16428,7 +16430,7 @@
         <v>1548</v>
       </c>
       <c r="D514" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E514" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(JSON_Template,"VALUE",Table1[[#This Row],[fr]]),"KEY",Table1[[#This Row],[Keys]])</f>
